--- a/data_process/xlsx/jongno_E2_processed.xlsx
+++ b/data_process/xlsx/jongno_E2_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,16 @@
           <t>create_time</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>lat</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>lng</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -547,8 +557,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:47</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>126.9772484</v>
+      </c>
+      <c r="N2" t="n">
+        <v>37.5676845</v>
       </c>
     </row>
     <row r="3">
@@ -603,8 +619,14 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:47</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>126.9805525</v>
+      </c>
+      <c r="N3" t="n">
+        <v>37.5659693</v>
       </c>
     </row>
     <row r="4">
@@ -659,8 +681,14 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:47</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>126.9805525</v>
+      </c>
+      <c r="N4" t="n">
+        <v>37.5659693</v>
       </c>
     </row>
     <row r="5">
@@ -715,8 +743,14 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:47</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>126.9796832</v>
+      </c>
+      <c r="N5" t="n">
+        <v>37.5704148</v>
       </c>
     </row>
     <row r="6">
@@ -771,8 +805,14 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:47</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>126.9979211</v>
+      </c>
+      <c r="N6" t="n">
+        <v>37.5706536</v>
       </c>
     </row>
     <row r="7">
@@ -827,8 +867,14 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:47</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>127.016363</v>
+      </c>
+      <c r="N7" t="n">
+        <v>37.570758</v>
       </c>
     </row>
     <row r="8">
@@ -883,8 +929,14 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:47</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>127.0036</v>
+      </c>
+      <c r="N8" t="n">
+        <v>37.570633</v>
       </c>
     </row>
     <row r="9">
@@ -939,8 +991,14 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:47</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>126.9805525</v>
+      </c>
+      <c r="N9" t="n">
+        <v>37.5659693</v>
       </c>
     </row>
     <row r="10">
@@ -995,8 +1053,14 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:47</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>126.9923214</v>
+      </c>
+      <c r="N10" t="n">
+        <v>37.57039</v>
       </c>
     </row>
     <row r="11">
@@ -1051,8 +1115,14 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:47</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>126.99215</v>
+      </c>
+      <c r="N11" t="n">
+        <v>37.5662167</v>
       </c>
     </row>
   </sheetData>

--- a/data_process/xlsx/jongno_E2_processed.xlsx
+++ b/data_process/xlsx/jongno_E2_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,24 +491,34 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>create_time</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>lat</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>lng</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>naver_place_id</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>청계광장옆자전거대여소</t>
+          <t>부산은행자전거대여소</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -527,7 +537,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -541,7 +551,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>태평로1가</t>
+          <t>을지로1가</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -557,20 +567,28 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:47</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>126.9772484</v>
+          <t>https://pcmap.place.naver.com/place/1622717937/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143529796</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:40:19</t>
+        </is>
       </c>
       <c r="N2" t="n">
-        <v>37.5676845</v>
+        <v>126.9805525</v>
+      </c>
+      <c r="O2" t="n">
+        <v>37.5659693</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1622717937</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>부산은행자전거대여소</t>
+          <t>청계광장옆자전거대여소</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -589,7 +607,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -603,7 +621,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>을지로1가</t>
+          <t>태평로1가</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -619,14 +637,22 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:47</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>126.9805525</v>
+          <t>https://pcmap.place.naver.com/place/38267105/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143542085</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:40:19</t>
+        </is>
       </c>
       <c r="N3" t="n">
-        <v>37.5659693</v>
+        <v>126.9772484</v>
+      </c>
+      <c r="O3" t="n">
+        <v>37.5676845</v>
+      </c>
+      <c r="P3" t="n">
+        <v>38267105</v>
       </c>
     </row>
     <row r="4">
@@ -681,20 +707,28 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:47</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
+          <t>https://pcmap.place.naver.com/place/1280845528/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143550922</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:40:19</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>126.9805525</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>37.5659693</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1280845528</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>종각역1번출구앞자전거대여소</t>
+          <t>을지로입구역2번출구자전거대여소</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -713,7 +747,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -722,12 +756,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>종로1가</t>
+          <t>을지로1가</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -743,20 +777,28 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:47</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>126.9796832</v>
+          <t>https://pcmap.place.naver.com/place/1063343973/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143559800</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:40:19</t>
+        </is>
       </c>
       <c r="N5" t="n">
-        <v>37.5704148</v>
+        <v>126.9805525</v>
+      </c>
+      <c r="O5" t="n">
+        <v>37.5659693</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1063343973</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>종묘공영주차장건너편자전거대여소</t>
+          <t>종각역1번출구앞자전거대여소</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -775,7 +817,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -789,7 +831,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>종로4가</t>
+          <t>종로1가</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -805,20 +847,28 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:47</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>126.9979211</v>
+          <t>https://pcmap.place.naver.com/place/38267109/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143568471</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:40:19</t>
+        </is>
       </c>
       <c r="N6" t="n">
-        <v>37.5706536</v>
+        <v>126.9796832</v>
+      </c>
+      <c r="O6" t="n">
+        <v>37.5704148</v>
+      </c>
+      <c r="P6" t="n">
+        <v>38267109</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>동묘앞역6번출구자전거대여소</t>
+          <t>종묘공영주차장건너편자전거대여소</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -837,7 +887,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -851,7 +901,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>창신동</t>
+          <t>종로4가</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -867,14 +917,22 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:47</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>127.016363</v>
+          <t>https://pcmap.place.naver.com/place/1748135393/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143577312</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:40:19</t>
+        </is>
       </c>
       <c r="N7" t="n">
-        <v>37.570758</v>
+        <v>126.9979211</v>
+      </c>
+      <c r="O7" t="n">
+        <v>37.5706536</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1748135393</v>
       </c>
     </row>
     <row r="8">
@@ -929,20 +987,28 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:47</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
+          <t>https://pcmap.place.naver.com/place/1475956814/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143586126</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:40:19</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>127.0036</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>37.570633</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1475956814</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>을지로입구역2번출구자전거대여소</t>
+          <t>종로3가역2번출구뒤자전거대여소</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -961,7 +1027,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -970,12 +1036,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>을지로1가</t>
+          <t>종로3가</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -991,20 +1057,28 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:47</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>126.9805525</v>
+          <t>https://pcmap.place.naver.com/place/38267121/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143594956</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:40:19</t>
+        </is>
       </c>
       <c r="N9" t="n">
-        <v>37.5659693</v>
+        <v>126.9923214</v>
+      </c>
+      <c r="O9" t="n">
+        <v>37.57039</v>
+      </c>
+      <c r="P9" t="n">
+        <v>38267121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>종로3가역2번출구뒤자전거대여소</t>
+          <t>을지로3가역3번출구자전거대여소</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1023,7 +1097,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1032,12 +1106,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>종로3가</t>
+          <t>을지로3가</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1053,20 +1127,28 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:47</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>126.9923214</v>
+          <t>https://pcmap.place.naver.com/place/1938301565/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143603776</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:40:19</t>
+        </is>
       </c>
       <c r="N10" t="n">
-        <v>37.57039</v>
+        <v>126.99215</v>
+      </c>
+      <c r="O10" t="n">
+        <v>37.5662167</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1938301565</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>을지로3가역3번출구자전거대여소</t>
+          <t>국립어린이과학관자전거대여소</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1085,7 +1167,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1094,12 +1176,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>을지로3가</t>
+          <t>와룡동</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1115,14 +1197,22 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:47</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>126.99215</v>
+          <t>https://pcmap.place.naver.com/place/1330252256/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143614661</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:40:19</t>
+        </is>
       </c>
       <c r="N11" t="n">
-        <v>37.5662167</v>
+        <v>126.993</v>
+      </c>
+      <c r="O11" t="n">
+        <v>37.582</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1330252256</v>
       </c>
     </row>
   </sheetData>

--- a/data_process/xlsx/jongno_E2_processed.xlsx
+++ b/data_process/xlsx/jongno_E2_processed.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2023-08-27 22:40:19</t>
+          <t>2023-09-05 15:37:48</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -642,7 +642,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2023-08-27 22:40:19</t>
+          <t>2023-09-05 15:37:48</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -712,7 +712,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2023-08-27 22:40:19</t>
+          <t>2023-09-05 15:37:48</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -782,7 +782,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2023-08-27 22:40:19</t>
+          <t>2023-09-05 15:37:48</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -852,7 +852,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2023-08-27 22:40:19</t>
+          <t>2023-09-05 15:37:48</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -922,7 +922,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2023-08-27 22:40:19</t>
+          <t>2023-09-05 15:37:48</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -992,7 +992,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2023-08-27 22:40:19</t>
+          <t>2023-09-05 15:37:48</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2023-08-27 22:40:19</t>
+          <t>2023-09-05 15:37:48</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2023-08-27 22:40:19</t>
+          <t>2023-09-05 15:37:48</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2023-08-27 22:40:19</t>
+          <t>2023-09-05 15:37:48</t>
         </is>
       </c>
       <c r="N11" t="n">

--- a/data_process/xlsx/jongno_E2_processed.xlsx
+++ b/data_process/xlsx/jongno_E2_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,12 +567,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1622717937/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143529796</t>
+          <t>https://pcmap.place.naver.com/place/1622717937/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9793411&amp;y=37.5664648&amp;timestamp=202309071836</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:48</t>
+          <t>2023-09-07 18:36:19</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -637,12 +637,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/38267105/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143542085</t>
+          <t>https://pcmap.place.naver.com/place/38267105/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.977450599721&amp;y=37.56888329983809&amp;timestamp=202309071836</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:48</t>
+          <t>2023-09-07 18:36:19</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -707,12 +707,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1280845528/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143550922</t>
+          <t>https://pcmap.place.naver.com/place/1280845528/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.979808443752&amp;y=37.5658544397867&amp;timestamp=202309071837</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:48</t>
+          <t>2023-09-07 18:36:19</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -728,7 +728,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>을지로입구역2번출구자전거대여소</t>
+          <t>종각역1번출구앞자전거대여소</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -756,12 +756,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>을지로1가</t>
+          <t>종로1가</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -777,28 +777,28 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1063343973/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143559800</t>
+          <t>https://pcmap.place.naver.com/place/38267109/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.981745300139&amp;y=37.57038070017809&amp;timestamp=202309071837</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:48</t>
+          <t>2023-09-07 18:36:19</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>126.9805525</v>
+        <v>126.9796832</v>
       </c>
       <c r="O5" t="n">
-        <v>37.5659693</v>
+        <v>37.5704148</v>
       </c>
       <c r="P5" t="n">
-        <v>1063343973</v>
+        <v>38267109</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>종각역1번출구앞자전거대여소</t>
+          <t>을지로입구역2번출구자전거대여소</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -826,12 +826,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>종로1가</t>
+          <t>을지로1가</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -847,22 +847,22 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/38267109/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143568471</t>
+          <t>https://pcmap.place.naver.com/place/1063343973/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98233935754402&amp;y=37.56650059878068&amp;timestamp=202309071837</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:48</t>
+          <t>2023-09-07 18:36:19</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>126.9796832</v>
+        <v>126.9805525</v>
       </c>
       <c r="O6" t="n">
-        <v>37.5704148</v>
+        <v>37.5659693</v>
       </c>
       <c r="P6" t="n">
-        <v>38267109</v>
+        <v>1063343973</v>
       </c>
     </row>
     <row r="7">
@@ -917,12 +917,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1748135393/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143577312</t>
+          <t>https://pcmap.place.naver.com/place/1748135393/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9966294&amp;y=37.570483700000004&amp;timestamp=202309071837</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:48</t>
+          <t>2023-09-07 18:36:19</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -938,7 +938,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>종로5가역4번출구자전거대여소</t>
+          <t>을지로3가역3번출구자전거대여소</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -966,12 +966,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>종로5가</t>
+          <t>을지로3가</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -987,28 +987,28 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1475956814/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143586126</t>
+          <t>https://pcmap.place.naver.com/place/1938301565/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99244064426898&amp;y=37.56655710486749&amp;timestamp=202309071837</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:48</t>
+          <t>2023-09-07 18:36:19</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>127.0036</v>
+        <v>126.99215</v>
       </c>
       <c r="O8" t="n">
-        <v>37.570633</v>
+        <v>37.5662167</v>
       </c>
       <c r="P8" t="n">
-        <v>1475956814</v>
+        <v>1938301565</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>종로3가역2번출구뒤자전거대여소</t>
+          <t>국립어린이과학관자전거대여소</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>종로3가</t>
+          <t>와룡동</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1057,28 +1057,28 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/38267121/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143594956</t>
+          <t>https://pcmap.place.naver.com/place/1330252256/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.997347860774&amp;y=37.581958006289796&amp;timestamp=202309071837</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:48</t>
+          <t>2023-09-07 18:36:19</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>126.9923214</v>
+        <v>126.993</v>
       </c>
       <c r="O9" t="n">
-        <v>37.57039</v>
+        <v>37.582</v>
       </c>
       <c r="P9" t="n">
-        <v>38267121</v>
+        <v>1330252256</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>을지로3가역3번출구자전거대여소</t>
+          <t>종로3가역2번출구뒤자전거대여소</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1106,12 +1106,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>을지로3가</t>
+          <t>종로3가</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1127,28 +1127,28 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1938301565/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143603776</t>
+          <t>https://pcmap.place.naver.com/place/38267121/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99178489967599&amp;y=37.5705926998599&amp;timestamp=202309071838</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:48</t>
+          <t>2023-09-07 18:36:19</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>126.99215</v>
+        <v>126.9923214</v>
       </c>
       <c r="O10" t="n">
-        <v>37.5662167</v>
+        <v>37.57039</v>
       </c>
       <c r="P10" t="n">
-        <v>1938301565</v>
+        <v>38267121</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>국립어린이과학관자전거대여소</t>
+          <t>종로5가역4번출구자전거대여소</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>와룡동</t>
+          <t>종로5가</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1197,22 +1197,2822 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1330252256/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143614661</t>
+          <t>https://pcmap.place.naver.com/place/1475956814/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.002228122029&amp;y=37.571175592306304&amp;timestamp=202309071838</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:48</t>
+          <t>2023-09-07 18:36:19</t>
         </is>
       </c>
       <c r="N11" t="n">
+        <v>127.0036</v>
+      </c>
+      <c r="O11" t="n">
+        <v>37.570633</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1475956814</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>안국동사거리(신)자전거대여소</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>안국동</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1496605469/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98339198791899&amp;y=37.5758149018114&amp;timestamp=202309071838</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>126.9829</v>
+      </c>
+      <c r="O12" t="n">
+        <v>37.5773</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1496605469</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>성균관대E하우스앞자전거대여소</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>충신동</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/38267130/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00670919966599&amp;y=37.57403720003691&amp;timestamp=202309071838</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>127.006125</v>
+      </c>
+      <c r="O13" t="n">
+        <v>37.574842</v>
+      </c>
+      <c r="P13" t="n">
+        <v>38267130</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>혜화역1번출구자전거대여소</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>혜화동</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1537410063/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00177750405601&amp;y=37.5840038849059&amp;timestamp=202309071838</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>127.0005764</v>
+      </c>
+      <c r="O14" t="n">
+        <v>37.5869186</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1537410063</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>동대문역8번출구자전거대여소</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>종로6가</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1297386471/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0093708&amp;y=37.57020239999999&amp;timestamp=202309071838</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>127.0076</v>
+      </c>
+      <c r="O15" t="n">
+        <v>37.5719</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1297386471</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SK서린빌딩앞자전거대여소</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>서린동</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/38291815/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.980545482786&amp;y=37.569252645807104&amp;timestamp=202309071839</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>126.9803876</v>
+      </c>
+      <c r="O16" t="n">
+        <v>37.5695043</v>
+      </c>
+      <c r="P16" t="n">
+        <v>38291815</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>동묘앞역6번출구자전거대여소</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>창신동</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1928118067/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.01562600846299&amp;y=37.5719573614287&amp;timestamp=202309071839</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>127.016363</v>
+      </c>
+      <c r="O17" t="n">
+        <v>37.570758</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1928118067</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>광화문역5번출구자전거대여소</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>세종로</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1846302205/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.977557161464&amp;y=37.56992479411709&amp;timestamp=202309071839</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>126.9767572</v>
+      </c>
+      <c r="O18" t="n">
+        <v>37.5802853</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1846302205</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>서울특별시중부교육지원청자전거대여소</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>효제동</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1963148990/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00235677378399&amp;y=37.571855023972&amp;timestamp=202309071839</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>127.0030375</v>
+      </c>
+      <c r="O19" t="n">
+        <v>37.57295</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1963148990</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>종로오가지하쇼핑센터14번출구자전거대여소</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>5</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>종로5가</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1175378908/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00066871241856&amp;y=37.57104164350573&amp;timestamp=202309071839</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>127.0036</v>
+      </c>
+      <c r="O20" t="n">
+        <v>37.570633</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1175378908</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>종로3가역15번출구앞자전거대여소</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>61</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>종로3가</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/38267122/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99125249968901&amp;y=37.57020299977219&amp;timestamp=202309071840</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>126.9923214</v>
+      </c>
+      <c r="O21" t="n">
+        <v>37.57039</v>
+      </c>
+      <c r="P21" t="n">
+        <v>38267122</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>동대문종합시장버스정류장자전거대여소</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>4</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>종로5가</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1415023875/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00439379098599&amp;y=37.5711859987554&amp;timestamp=202309071840</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>127.0036</v>
+      </c>
+      <c r="O22" t="n">
+        <v>37.570633</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1415023875</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>웰니스센터(민방위교육장앞)자전거대여소</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>운니동</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1087121092/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.989140798221&amp;y=37.5775214070701&amp;timestamp=202309071840</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>126.9883</v>
+      </c>
+      <c r="O23" t="n">
+        <v>37.5764</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1087121092</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>동대문디자인플라자자전거대여소</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>중구</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>을지로6가</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1098191729/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.009616184233&amp;y=37.5683124345972&amp;timestamp=202309071840</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>127.006938</v>
+      </c>
+      <c r="O24" t="n">
+        <v>37.567717</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1098191729</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>종묘자전거대여소</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>종로3가</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1412800878/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99480582244901&amp;y=37.57071961161658&amp;timestamp=202309071840</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>126.9923214</v>
+      </c>
+      <c r="O25" t="n">
+        <v>37.57039</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1412800878</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>동묘앞역1번출구뒤자전거대여소</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>숭인동</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/38291809/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.015910209397&amp;y=37.57323620634009&amp;timestamp=202309071840</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>127.0156274</v>
+      </c>
+      <c r="O26" t="n">
+        <v>37.5778049</v>
+      </c>
+      <c r="P26" t="n">
+        <v>38291809</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>종로2가버스정류장(종각방향)자전거대여소</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>5</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>종로2가</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1569194704/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98639948043797&amp;y=37.5703056957855&amp;timestamp=202309071841</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>126.9869027</v>
+      </c>
+      <c r="O27" t="n">
+        <v>37.5704398</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1569194704</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>롯데시티호텔자전거대여소</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>중구</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>장교동</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1494719291/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98780054610853&amp;y=37.566934672853456&amp;timestamp=202309071841</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>126.9869527</v>
+      </c>
+      <c r="O28" t="n">
+        <v>37.5674312</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1494719291</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>원남동사거리자전거대여소</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>원남동</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/38291804/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99755870044099&amp;y=37.5761627000818&amp;timestamp=202309071841</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>126.9975625</v>
+      </c>
+      <c r="O29" t="n">
+        <v>37.5754583</v>
+      </c>
+      <c r="P29" t="n">
+        <v>38291804</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>청계2가사거리옆자전거대여소</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>6</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>관철동</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/38267119/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98789578304799&amp;y=37.56834793543539&amp;timestamp=202309071841</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>126.9859731</v>
+      </c>
+      <c r="O30" t="n">
+        <v>37.5691073</v>
+      </c>
+      <c r="P30" t="n">
+        <v>38267119</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>세운상가자전거대여소</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>종로3가</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1855397066/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99455491710802&amp;y=37.57030889375989&amp;timestamp=202309071841</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>126.9923214</v>
+      </c>
+      <c r="O31" t="n">
+        <v>37.57039</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1855397066</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>종로3가역8번출구자전거대여소</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>묘동</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1105193369/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.991890176934&amp;y=37.5724679423597&amp;timestamp=202309071842</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>126.9917106</v>
+      </c>
+      <c r="O32" t="n">
+        <v>37.5724175</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1105193369</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>탑골공원앞자전거대여소</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>종로2가</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/38267118/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.988177099956&amp;y=37.57039810041339&amp;timestamp=202309071842</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>126.9869027</v>
+      </c>
+      <c r="O33" t="n">
+        <v>37.5704398</v>
+      </c>
+      <c r="P33" t="n">
+        <v>38267118</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>동대문역사문화공원역1번출구뒤편자전거대여소</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>중구</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>을지로7가</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1920903483/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.008488415989&amp;y=37.566299595432&amp;timestamp=202309071842</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>127.010437</v>
+      </c>
+      <c r="O34" t="n">
+        <v>37.566325</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1920903483</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>서울보증보험본사앞자전거대여소</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>연지동</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/38267131/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00066820001501&amp;y=37.5733049003203&amp;timestamp=202309071842</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>127.0002</v>
+      </c>
+      <c r="O35" t="n">
+        <v>37.5737</v>
+      </c>
+      <c r="P35" t="n">
+        <v>38267131</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>서울지방고용노동청앞자전거대여소</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>중구</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>장교동</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1538637800/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98739597749788&amp;y=37.56781873711637&amp;timestamp=202309071842</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>126.9869527</v>
+      </c>
+      <c r="O36" t="n">
+        <v>37.5674312</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1538637800</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>세운스퀘어앞자전거대여소</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>인의동</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/38267125/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99729350048699&amp;y=37.571049800194494&amp;timestamp=202309071843</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>126.9979</v>
+      </c>
+      <c r="O37" t="n">
+        <v>37.5725</v>
+      </c>
+      <c r="P37" t="n">
+        <v>38267125</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>이화공영주차장자전거대여소</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>이화동</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1257275869/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.005573537253&amp;y=37.57661067463171&amp;timestamp=202309071843</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>127.004338</v>
+      </c>
+      <c r="O38" t="n">
+        <v>37.577008</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1257275869</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>경복궁역4번출구뒤자전거대여소</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>적선동</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/38267098/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.974063699503&amp;y=37.5759343002829&amp;timestamp=202309071843</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>126.9737589</v>
+      </c>
+      <c r="O39" t="n">
+        <v>37.5753026</v>
+      </c>
+      <c r="P39" t="n">
+        <v>38267098</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>현대뜨레비앙아파트앞자전거대여소</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>4</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>와룡동</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1636880264/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.990624875658&amp;y=37.5752860386644&amp;timestamp=202309071843</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>126.993</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O40" t="n">
         <v>37.582</v>
       </c>
-      <c r="P11" t="n">
-        <v>1330252256</v>
+      <c r="P40" t="n">
+        <v>1636880264</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>현대그룹(본사)자전거대여소</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>4</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>연지동</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1998093080/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00068234301999&amp;y=37.5758638827998&amp;timestamp=202309071843</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>127.0002</v>
+      </c>
+      <c r="O41" t="n">
+        <v>37.5737</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1998093080</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>종로꽃시장입구옆자전거대여소</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>7</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>종로6가</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1069315006/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.007229161113&amp;y=37.571321255223495&amp;timestamp=202309071843</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>127.0076</v>
+      </c>
+      <c r="O42" t="n">
+        <v>37.5719</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1069315006</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>청계3가사거리자전거대여소</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>관수동</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1050855583/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.992122872601&amp;y=37.5685579389597&amp;timestamp=202309071844</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>126.9906</v>
+      </c>
+      <c r="O43" t="n">
+        <v>37.5691</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1050855583</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>낙원상가옆자전거대여소</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>낙원동</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/38267117/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98743379977499&amp;y=37.5733114997155&amp;timestamp=202309071844</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>126.9885</v>
+      </c>
+      <c r="O44" t="n">
+        <v>37.5725</v>
+      </c>
+      <c r="P44" t="n">
+        <v>38267117</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>종로타워빌딩자전거대여소</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>공평동</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1380776927/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.983375955321&amp;y=37.5705128298239&amp;timestamp=202309071844</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>126.9828</v>
+      </c>
+      <c r="O45" t="n">
+        <v>37.5711</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1380776927</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>종로6가역버스정류장(동대문방향)자전거대여소</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>종로5가</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1896471733/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00606926252004&amp;y=37.57094428746122&amp;timestamp=202309071844</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>127.0036</v>
+      </c>
+      <c r="O46" t="n">
+        <v>37.570633</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1896471733</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>종각역5번출구자전거대여소</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>서린동</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/38417732/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98258029958099&amp;y=37.5696150997496&amp;timestamp=202309071844</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>126.9803876</v>
+      </c>
+      <c r="O47" t="n">
+        <v>37.5695043</v>
+      </c>
+      <c r="P47" t="n">
+        <v>38417732</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>종로구청옆자전거대여소</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>세종로</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1932872318/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.978332409077&amp;y=37.5725596427946&amp;timestamp=202309071845</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>126.9767572</v>
+      </c>
+      <c r="O48" t="n">
+        <v>37.5802853</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1932872318</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>종로4가사거리자전거대여소</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>인의동</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/38267126/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99801789962099&amp;y=37.5711446001481&amp;timestamp=202309071845</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>126.9979</v>
+      </c>
+      <c r="O49" t="n">
+        <v>37.5725</v>
+      </c>
+      <c r="P49" t="n">
+        <v>38267126</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>조계사앞사거리자전거대여소</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>견지동</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1602849568/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98279135401732&amp;y=37.57216413711981&amp;timestamp=202309071845</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>126.9829808</v>
+      </c>
+      <c r="O50" t="n">
+        <v>37.573504</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1602849568</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>광교사거리남측자전거대여소</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>따릉이</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>중구</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>다동</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/38267110/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.982244799491&amp;y=37.568582600106495&amp;timestamp=202309071845</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:36:19</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>126.980913</v>
+      </c>
+      <c r="O51" t="n">
+        <v>37.568133</v>
+      </c>
+      <c r="P51" t="n">
+        <v>38267110</v>
       </c>
     </row>
   </sheetData>
